--- a/datas/test.xlsx
+++ b/datas/test.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestTools\PyCharm Community Edition 2019.3.3\AIOT\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA50731-9342-4369-A518-10CE47948F47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60893F78-C35B-43DB-AAE0-AC109D7E127E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="1212" windowWidth="10944" windowHeight="10584" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8616" yWindow="264" windowWidth="13608" windowHeight="10584" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="getuserinfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>case_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,14 @@
   </si>
   <si>
     <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/getUserInfo</t>
+  </si>
+  <si>
+    <t>{"page":1,
+"size":10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +443,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -521,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16056EA8-5715-49F0-B2AB-3AE530FDAC05}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,4 +591,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9CC54-25A0-406B-9847-86A5D48D28B2}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>